--- a/data/2019/Fell/Extracted Pendle.xlsx
+++ b/data/2019/Fell/Extracted Pendle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2019\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C860A-6755-4892-A757-B33F1B48047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4170DB54-C6F0-4D68-B341-234CF72277A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
   <si>
     <t>Vet</t>
   </si>
@@ -894,6 +894,12 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -909,12 +915,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1443,19 +1443,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="N1" s="8" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="4" spans="1:15" ht="11.45" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="44">
+      <c r="B4" s="38">
         <v>6</v>
       </c>
       <c r="C4" s="23">
@@ -1535,13 +1535,13 @@
       <c r="N4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="39">
         <v>2.3737999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="11.45" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="44">
+      <c r="B5" s="38">
         <v>24</v>
       </c>
       <c r="C5" s="23">
@@ -1564,13 +1564,13 @@
       <c r="N5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="39">
         <v>2.6006999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="11.45" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="44">
+      <c r="B6" s="38">
         <v>31</v>
       </c>
       <c r="C6" s="23">
@@ -1593,13 +1593,13 @@
       <c r="N6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="39">
         <v>2.6388999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="11.45" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="44">
+      <c r="B7" s="38">
         <v>37</v>
       </c>
       <c r="C7" s="23">
@@ -1626,13 +1626,13 @@
       <c r="N7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="39">
         <v>2.6700999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.45" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="44">
+      <c r="B8" s="38">
         <v>42</v>
       </c>
       <c r="C8" s="23">
@@ -1655,13 +1655,13 @@
       <c r="N8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="39">
         <v>2.7234000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.45" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="44">
+      <c r="B9" s="38">
         <v>45</v>
       </c>
       <c r="C9" s="23">
@@ -1686,13 +1686,13 @@
       <c r="N9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="39">
         <v>2.7418999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.45" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="44">
+      <c r="B10" s="38">
         <v>51</v>
       </c>
       <c r="C10" s="23">
@@ -1715,13 +1715,13 @@
       <c r="N10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="39">
         <v>2.8101999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.45" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="44">
+      <c r="B11" s="38">
         <v>52</v>
       </c>
       <c r="C11" s="23">
@@ -1748,13 +1748,13 @@
       <c r="N11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="39">
         <v>2.8171000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="11.45" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="44">
+      <c r="B12" s="38">
         <v>66</v>
       </c>
       <c r="C12" s="23">
@@ -1777,13 +1777,13 @@
       <c r="N12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="39">
         <v>2.8912E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="11.45" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="44">
+      <c r="B13" s="38">
         <v>70</v>
       </c>
       <c r="C13" s="23">
@@ -1806,13 +1806,13 @@
       <c r="N13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="39">
         <v>2.9051E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11.45" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="44">
+      <c r="B14" s="38">
         <v>75</v>
       </c>
       <c r="C14" s="23">
@@ -1835,13 +1835,13 @@
       <c r="N14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="39">
         <v>2.9513999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="11.45" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="44">
+      <c r="B15" s="38">
         <v>77</v>
       </c>
       <c r="C15" s="23">
@@ -1866,13 +1866,13 @@
       <c r="N15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="39">
         <v>2.9641000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="11.45" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="44">
+      <c r="B16" s="38">
         <v>78</v>
       </c>
       <c r="C16" s="23">
@@ -1897,13 +1897,13 @@
       <c r="N16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="39">
         <v>2.9711000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="11.45" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="44">
+      <c r="B17" s="38">
         <v>83</v>
       </c>
       <c r="C17" s="23">
@@ -1930,13 +1930,13 @@
       <c r="N17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="39">
         <v>2.9977E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="11.45" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="44">
+      <c r="B18" s="38">
         <v>87</v>
       </c>
       <c r="C18" s="23">
@@ -1963,13 +1963,13 @@
       <c r="N18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="39">
         <v>3.0266000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="11.45" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="44">
+      <c r="B19" s="38">
         <v>102</v>
       </c>
       <c r="C19" s="23">
@@ -1994,13 +1994,13 @@
       <c r="N19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="39">
         <v>3.0890999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="11.45" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="44">
+      <c r="B20" s="38">
         <v>103</v>
       </c>
       <c r="C20" s="23">
@@ -2027,13 +2027,13 @@
       <c r="N20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="39">
         <v>3.1053000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="11.45" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="44">
+      <c r="B21" s="38">
         <v>114</v>
       </c>
       <c r="C21" s="23">
@@ -2058,13 +2058,13 @@
       <c r="N21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="39">
         <v>3.1597E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="11.45" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="44">
+      <c r="B22" s="38">
         <v>116</v>
       </c>
       <c r="C22" s="23">
@@ -2089,13 +2089,13 @@
       <c r="N22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="39">
         <v>3.1829000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="11.45" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="44">
+      <c r="B23" s="38">
         <v>132</v>
       </c>
       <c r="C23" s="23">
@@ -2122,13 +2122,13 @@
       <c r="N23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="39">
         <v>3.3309999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="11.45" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="44">
+      <c r="B24" s="38">
         <v>135</v>
       </c>
       <c r="C24" s="23">
@@ -2157,13 +2157,13 @@
       <c r="N24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="39">
         <v>3.3449E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="11.45" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="44">
+      <c r="B25" s="38">
         <v>137</v>
       </c>
       <c r="C25" s="23">
@@ -2188,13 +2188,13 @@
       <c r="N25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="39">
         <v>3.3519E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.45" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="44">
+      <c r="B26" s="38">
         <v>138</v>
       </c>
       <c r="C26" s="23">
@@ -2223,13 +2223,13 @@
       <c r="N26" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="39">
         <v>3.3542000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.45" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="44">
+      <c r="B27" s="38">
         <v>140</v>
       </c>
       <c r="C27" s="23">
@@ -2254,13 +2254,13 @@
       <c r="N27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="39">
         <v>3.3854000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.45" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="44">
+      <c r="B28" s="38">
         <v>146</v>
       </c>
       <c r="C28" s="23">
@@ -2287,13 +2287,13 @@
       <c r="N28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="39">
         <v>3.4306000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.45" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="44">
+      <c r="B29" s="38">
         <v>158</v>
       </c>
       <c r="C29" s="23">
@@ -2322,13 +2322,13 @@
       <c r="N29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="39">
         <v>3.5057999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.45" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="44">
+      <c r="B30" s="38">
         <v>159</v>
       </c>
       <c r="C30" s="23">
@@ -2355,13 +2355,13 @@
       <c r="N30" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="39">
         <v>3.5081000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.45" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="44">
+      <c r="B31" s="38">
         <v>162</v>
       </c>
       <c r="C31" s="23">
@@ -2388,13 +2388,13 @@
       <c r="N31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="39">
         <v>3.5451000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.45" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="44">
+      <c r="B32" s="38">
         <v>164</v>
       </c>
       <c r="C32" s="23">
@@ -2423,13 +2423,13 @@
       <c r="N32" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="45">
+      <c r="O32" s="39">
         <v>3.5693999999999997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.45" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="44">
+      <c r="B33" s="38">
         <v>179</v>
       </c>
       <c r="C33" s="23">
@@ -2456,13 +2456,13 @@
       <c r="N33" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="39">
         <v>3.7488E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.45" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="44">
+      <c r="B34" s="38">
         <v>185</v>
       </c>
       <c r="C34" s="23">
@@ -2487,13 +2487,13 @@
       <c r="N34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="39">
         <v>3.8124999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.45" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="44">
+      <c r="B35" s="38">
         <v>187</v>
       </c>
       <c r="C35" s="23">
@@ -2520,13 +2520,13 @@
       <c r="N35" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="39">
         <v>3.8448999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.45" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="44">
+      <c r="B36" s="38">
         <v>190</v>
       </c>
       <c r="C36" s="23">
@@ -2553,13 +2553,13 @@
       <c r="N36" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="39">
         <v>3.8691999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.45" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="44">
+      <c r="B37" s="38">
         <v>193</v>
       </c>
       <c r="C37" s="23">
@@ -2590,13 +2590,13 @@
       <c r="N37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="39">
         <v>3.8947000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.45" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="44">
+      <c r="B38" s="38">
         <v>198</v>
       </c>
       <c r="C38" s="23">
@@ -2621,13 +2621,13 @@
       <c r="N38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="39">
         <v>3.9931000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.45" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="44">
+      <c r="B39" s="38">
         <v>203</v>
       </c>
       <c r="C39" s="23">
@@ -2656,13 +2656,13 @@
       <c r="N39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="45">
+      <c r="O39" s="39">
         <v>4.0474999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="11.45" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="44">
+      <c r="B40" s="38">
         <v>205</v>
       </c>
       <c r="C40" s="23">
@@ -2691,13 +2691,13 @@
       <c r="N40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O40" s="45">
+      <c r="O40" s="39">
         <v>4.0590000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="11.45" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="44">
+      <c r="B41" s="38">
         <v>212</v>
       </c>
       <c r="C41" s="23">
@@ -2726,13 +2726,13 @@
       <c r="N41" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="39">
         <v>4.2001999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="11.45" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="44">
+      <c r="B42" s="38">
         <v>214</v>
       </c>
       <c r="C42" s="23">
@@ -2759,13 +2759,13 @@
       <c r="N42" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="45">
+      <c r="O42" s="39">
         <v>4.2257000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="11.45" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="44">
+      <c r="B43" s="38">
         <v>218</v>
       </c>
       <c r="C43" s="23">
@@ -2788,13 +2788,13 @@
       <c r="N43" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="45">
+      <c r="O43" s="39">
         <v>4.3090000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="11.45" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="44">
+      <c r="B44" s="38">
         <v>219</v>
       </c>
       <c r="C44" s="23">
@@ -2823,13 +2823,13 @@
       <c r="N44" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="45">
+      <c r="O44" s="39">
         <v>4.4433E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="11.45" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="44">
+      <c r="B45" s="38">
         <v>220</v>
       </c>
       <c r="C45" s="23">
@@ -2858,13 +2858,13 @@
       <c r="N45" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="45">
+      <c r="O45" s="39">
         <v>4.4850000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="11.45" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="44">
+      <c r="B46" s="38">
         <v>223</v>
       </c>
       <c r="C46" s="23">
@@ -2889,13 +2889,13 @@
       <c r="N46" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="45">
+      <c r="O46" s="39">
         <v>4.6655000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="11.45" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="44">
+      <c r="B47" s="38">
         <v>224</v>
       </c>
       <c r="C47" s="23">
@@ -2922,13 +2922,13 @@
       <c r="N47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="39">
         <v>4.684E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="11.45" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="44">
+      <c r="B48" s="38">
         <v>226</v>
       </c>
       <c r="C48" s="23">
@@ -2955,13 +2955,13 @@
       <c r="N48" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="45">
+      <c r="O48" s="39">
         <v>4.8344999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="11.45" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="44">
+      <c r="B49" s="38">
         <v>227</v>
       </c>
       <c r="C49" s="23">
@@ -2986,7 +2986,7 @@
       <c r="N49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O49" s="45">
+      <c r="O49" s="39">
         <v>5.0230999999999998E-2</v>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -8110,8 +8110,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="A4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -8143,9 +8143,6 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -8153,9 +8150,6 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -8163,9 +8157,6 @@
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -8173,9 +8164,6 @@
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -8183,9 +8171,6 @@
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -8193,9 +8178,6 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -8203,9 +8185,6 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -8219,9 +8198,6 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -8229,9 +8205,6 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -8239,9 +8212,6 @@
       <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -8249,9 +8219,6 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -8259,9 +8226,6 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -8269,9 +8233,6 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -8279,9 +8240,6 @@
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -8301,9 +8259,6 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="14.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -8311,9 +8266,6 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:12" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -8321,9 +8273,6 @@
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:12" ht="14.25">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
@@ -8331,9 +8280,6 @@
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:12" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
@@ -8341,9 +8287,6 @@
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:12" ht="14.25">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -8351,9 +8294,6 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:12" ht="14.25">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -8361,9 +8301,6 @@
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:12" ht="14.25">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
@@ -8377,9 +8314,6 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -8387,9 +8321,6 @@
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="14.25">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -8397,9 +8328,6 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:12" ht="14.25">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -8407,9 +8335,6 @@
       <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="14.25">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -8417,9 +8342,6 @@
       <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:12" ht="14.25">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -8427,9 +8349,6 @@
       <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:12" ht="14.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -8437,9 +8356,6 @@
       <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:12" ht="14.25">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -8452,70 +8368,49 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="49" spans="2:6" ht="14.25">
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="50" spans="2:6" ht="14.25">
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="51" spans="2:6" ht="14.25">
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="52" spans="2:6" ht="14.25">
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="53" spans="2:6" ht="14.25">
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="54" spans="2:6" ht="14.25">
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="55" spans="2:6" ht="14.25">
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
